--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
-    <t>raghav@wii.go.in</t>
+    <t>raghav@wii.gov.in</t>
   </si>
   <si>
     <t>Raghaaaav</t>
@@ -143,7 +143,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -186,7 +186,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="raghav@wii.go.in"/>
+    <hyperlink ref="A1" r:id="rId1" display="raghav@wii.gov.in"/>
     <hyperlink ref="A2" r:id="rId2" display="idonotcheckmymails@gmail.com"/>
     <hyperlink ref="A3" r:id="rId3" display="duaraghav8@gmail.com"/>
   </hyperlinks>
